--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -35,6 +34,12 @@
     <t>外网端口</t>
   </si>
   <si>
+    <t>所属服区间min</t>
+  </si>
+  <si>
+    <t>所属服区间max</t>
+  </si>
+  <si>
     <t>Process</t>
   </si>
   <si>
@@ -50,6 +55,12 @@
     <t>OuterPort</t>
   </si>
   <si>
+    <t>ServerMin</t>
+  </si>
+  <si>
+    <t>ServerMax</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -59,31 +70,82 @@
     <t>Realm</t>
   </si>
   <si>
+    <t>Realm1</t>
+  </si>
+  <si>
     <t>Gate</t>
   </si>
   <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
+    <t>Gate1_1</t>
+  </si>
+  <si>
+    <t>Gate1_2</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Manager1</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
+    <t>Location1</t>
+  </si>
+  <si>
+    <t>Realm2</t>
+  </si>
+  <si>
+    <t>Gate2_1</t>
+  </si>
+  <si>
+    <t>Gate2_2</t>
+  </si>
+  <si>
+    <t>Manager2</t>
+  </si>
+  <si>
+    <t>Location2</t>
+  </si>
+  <si>
+    <t>Realm3</t>
+  </si>
+  <si>
+    <t>Gate3_1</t>
+  </si>
+  <si>
+    <t>Gate3_2</t>
+  </si>
+  <si>
+    <t>Manager3</t>
+  </si>
+  <si>
+    <t>Location3</t>
+  </si>
+  <si>
+    <t>Realm4</t>
+  </si>
+  <si>
+    <t>Gate4_1</t>
+  </si>
+  <si>
+    <t>Gate4_2</t>
+  </si>
+  <si>
+    <t>Manager4</t>
+  </si>
+  <si>
+    <t>Location4</t>
+  </si>
+  <si>
+    <t>Http</t>
+  </si>
+  <si>
+    <t>Realm_GM</t>
+  </si>
+  <si>
+    <t>Gate_GM</t>
   </si>
 </sst>
 </file>
@@ -91,10 +153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,6 +180,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -126,80 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -208,17 +279,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,22 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -277,187 +339,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,8 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,21 +577,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,17 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -568,16 +610,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +648,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -730,6 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,23 +1144,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H8"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="15.0909090909091" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" ht="13.5" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1114,48 +1181,66 @@
       <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="3:10">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:10">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1166,16 +1251,22 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
+        <v>11002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1186,16 +1277,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" s="5">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
+        <v>11003</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1206,13 +1303,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H8" s="5">
-        <v>30003</v>
+        <v>11004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:8">
@@ -1226,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H9" s="5"/>
     </row>
@@ -1244,134 +1347,406 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:10">
       <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
+      <c r="D11" s="3">
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5">
+        <v>11012</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
+        <v>11013</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11014</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5">
+        <v>11022</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5">
+        <v>11023</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
+        <v>11024</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="3:10">
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="5">
+        <v>11032</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="5">
+        <v>11033</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="3">
         <v>18</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="5">
+        <v>11034</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="3">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D25" s="3">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="5">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5">
+        <v>99</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5">
+        <v>11102</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="3">
+        <v>102</v>
+      </c>
+      <c r="D27" s="5">
+        <v>99</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11103</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -67,6 +67,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>WatcherManager</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -82,12 +88,6 @@
     <t>Gate1_2</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Manager1</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>Gate2_2</t>
   </si>
   <si>
-    <t>Manager2</t>
-  </si>
-  <si>
     <t>Location2</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Gate3_2</t>
   </si>
   <si>
-    <t>Manager3</t>
-  </si>
-  <si>
     <t>Location3</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
   </si>
   <si>
     <t>Gate4_2</t>
-  </si>
-  <si>
-    <t>Manager4</t>
   </si>
   <si>
     <t>Location4</t>
@@ -1144,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J27"/>
+  <dimension ref="C3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1156,7 +1147,8 @@
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.3636363636364" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1272727272727" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
     <col min="10" max="10" width="15.0909090909091" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1240,105 +1232,107 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
+    <row r="6" customFormat="1" spans="3:10">
+      <c r="C6" s="3">
+        <v>999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9999</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
         <v>11002</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5">
-        <v>11003</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <v>11003</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="5">
-        <v>11004</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5">
+        <v>11004</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -1356,7 +1350,7 @@
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>2</v>
@@ -1365,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>26</v>
@@ -1382,7 +1376,7 @@
     </row>
     <row r="12" spans="3:10">
       <c r="C12" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -1391,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>27</v>
@@ -1408,7 +1402,7 @@
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -1417,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>28</v>
@@ -1434,7 +1428,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
@@ -1443,34 +1437,42 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:10">
       <c r="C15" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>11022</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="3:10">
       <c r="C16" s="3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5">
         <v>3</v>
@@ -1478,25 +1480,25 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="5">
-        <v>11022</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
+        <v>11023</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="3">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5">
         <v>3</v>
@@ -1505,24 +1507,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="5">
-        <v>11023</v>
-      </c>
-      <c r="I17" s="6">
+        <v>11024</v>
+      </c>
+      <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="3:8">
       <c r="C18" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5">
         <v>3</v>
@@ -1531,60 +1533,68 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="5">
-        <v>11024</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="3:10">
       <c r="C19" s="3">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8">
+      <c r="H19" s="5">
+        <v>11032</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10">
       <c r="C20" s="3">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>11033</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="3:10">
       <c r="C21" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D21" s="3">
         <v>4</v>
@@ -1592,25 +1602,25 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H21" s="5">
-        <v>11032</v>
+        <v>11034</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -1619,39 +1629,31 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="5">
-        <v>11033</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="3:10">
-      <c r="C23" s="3">
-        <v>18</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
+      <c r="C23" s="5">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5">
+        <v>99</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="H23" s="5">
-        <v>11034</v>
+        <v>11102</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1660,91 +1662,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:8">
+    <row r="24" spans="3:10">
       <c r="C24" s="3">
-        <v>19</v>
-      </c>
-      <c r="D24" s="3">
-        <v>4</v>
+        <v>102</v>
+      </c>
+      <c r="D24" s="5">
+        <v>99</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="3:8">
-      <c r="C25" s="3">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="3:10">
-      <c r="C26" s="5">
-        <v>101</v>
-      </c>
-      <c r="D26" s="5">
-        <v>99</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="5">
-        <v>11102</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
-      <c r="C27" s="3">
-        <v>102</v>
-      </c>
-      <c r="D27" s="5">
-        <v>99</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="H24" s="5">
         <v>11103</v>
       </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartSceneConfig@s.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +89,9 @@
     <t>Gate1_2</t>
   </si>
   <si>
+    <t>Manager1</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -103,7 +107,7 @@
     <t>Gate2_2</t>
   </si>
   <si>
-    <t>Location2</t>
+    <t>Manager2</t>
   </si>
   <si>
     <t>Realm3</t>
@@ -115,7 +119,7 @@
     <t>Gate3_2</t>
   </si>
   <si>
-    <t>Location3</t>
+    <t>Manager3</t>
   </si>
   <si>
     <t>Realm4</t>
@@ -127,16 +131,49 @@
     <t>Gate4_2</t>
   </si>
   <si>
-    <t>Location4</t>
+    <t>Manager4</t>
+  </si>
+  <si>
+    <t>GmWeb</t>
   </si>
   <si>
     <t>Http</t>
   </si>
   <si>
-    <t>Realm_GM</t>
-  </si>
-  <si>
-    <t>Gate_GM</t>
+    <t>GameHttp</t>
+  </si>
+  <si>
+    <t>Manager_GM</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot1</t>
+  </si>
+  <si>
+    <t>Robot2</t>
+  </si>
+  <si>
+    <t>Robot3</t>
+  </si>
+  <si>
+    <t>Robot4</t>
+  </si>
+  <si>
+    <t>Robot5</t>
+  </si>
+  <si>
+    <t>Robot6</t>
+  </si>
+  <si>
+    <t>Robot7</t>
+  </si>
+  <si>
+    <t>Robot8</t>
+  </si>
+  <si>
+    <t>Robot9</t>
   </si>
 </sst>
 </file>
@@ -149,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +206,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -624,51 +668,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,94 +719,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J24"/>
+  <dimension ref="C1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1147,10 +1191,668 @@
     <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.3636363636364" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.7272727272727" style="3" customWidth="1"/>
     <col min="8" max="8" width="13.1272727272727" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="15.0909090909091" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.2727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7272727272727" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="3:8">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="3:8">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="13.5" spans="3:10">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="13.5" spans="3:10">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="13.5" spans="3:10">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:10">
+      <c r="C6" s="3">
+        <v>999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="3:12">
+      <c r="C7" s="5">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:H9" si="0">10000+C7</f>
+        <v>10101</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="3:12">
+      <c r="C8" s="3">
+        <v>102</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>10102</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="3:12">
+      <c r="C9" s="3">
+        <v>103</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>10103</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="3:12">
+      <c r="C10" s="3">
+        <v>104</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="3:12">
+      <c r="C11" s="3">
+        <v>105</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="3:12">
+      <c r="C12" s="3">
+        <v>111</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" ref="H12:H14" si="1">10000+C12</f>
+        <v>10111</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="3:12">
+      <c r="C13" s="3">
+        <v>112</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>10112</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="3:12">
+      <c r="C14" s="3">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
+        <v>10113</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="3:12">
+      <c r="C15" s="3">
+        <v>114</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="3:12">
+      <c r="C16" s="3">
+        <v>121</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" ref="H16:H18" si="2">10000+C16</f>
+        <v>10121</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="3:12">
+      <c r="C17" s="3">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>10122</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="3:12">
+      <c r="C18" s="3">
+        <v>123</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>10123</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="3:12">
+      <c r="C19" s="3">
+        <v>124</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="3:12">
+      <c r="C20" s="3">
+        <v>131</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" ref="H20:H22" si="3">10000+C20</f>
+        <v>10131</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="3:12">
+      <c r="C21" s="3">
+        <v>132</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="3"/>
+        <v>10132</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="3:12">
+      <c r="C22" s="3">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>10133</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="3:12">
+      <c r="C23" s="3">
+        <v>134</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="3:12">
+      <c r="C24" s="5">
+        <v>191</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="5">
+        <f>10000+C24</f>
+        <v>10191</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="3:12">
+      <c r="C25" s="5">
+        <v>192</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="5">
+        <v>8080</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="3:12">
+      <c r="C26" s="3">
+        <v>193</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="3:12">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="6"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="3:12">
+      <c r="C28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.3727272727273" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.1272727272727" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.2727272727273" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.7272727272727" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1232,460 +1934,195 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="3:10">
-      <c r="C6" s="3">
-        <v>999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9999</v>
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="5">
+        <v>201</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2000</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
-      <c r="C7" s="5">
-        <v>1</v>
+      <c r="F6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H14" si="0">10000+C6</f>
+        <v>10201</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="3">
+        <v>202</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H7" s="5">
-        <v>11002</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10202</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="5">
+        <v>203</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H8" s="5">
-        <v>11003</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10">
+        <f t="shared" si="0"/>
+        <v>10203</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="3">
-        <v>3</v>
+        <v>204</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>23</v>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H9" s="5">
-        <v>11004</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10204</v>
       </c>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="3">
-        <v>4</v>
+      <c r="C10" s="5">
+        <v>205</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>10205</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
+        <v>206</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2000</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5">
-        <v>11012</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10206</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="5">
+        <v>207</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2000</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>27</v>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H12" s="5">
-        <v>11013</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10">
+        <f t="shared" si="0"/>
+        <v>10207</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>2</v>
+        <v>208</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2000</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="H13" s="5">
-        <v>11014</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10208</v>
       </c>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="3">
-        <v>13</v>
+      <c r="C14" s="5">
+        <v>209</v>
       </c>
       <c r="D14" s="5">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="3">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="5">
-        <v>11022</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="3">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="5">
-        <v>11023</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="3">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5">
-        <v>11024</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="3">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="3">
-        <v>30</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="5">
-        <v>11032</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
-      <c r="C20" s="3">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4</v>
-      </c>
-      <c r="E20" s="5">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="5">
-        <v>11033</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
-      <c r="C21" s="3">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="5">
-        <v>11034</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8">
-      <c r="C22" s="3">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="3:10">
-      <c r="C23" s="5">
-        <v>101</v>
-      </c>
-      <c r="D23" s="5">
-        <v>99</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="5">
-        <v>11102</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
-      <c r="C24" s="3">
-        <v>102</v>
-      </c>
-      <c r="D24" s="5">
-        <v>99</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="5">
-        <v>11103</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>10209</v>
       </c>
     </row>
   </sheetData>
